--- a/other/phone.xlsx
+++ b/other/phone.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>计费周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>7=12-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -627,6 +623,9 @@
       <c r="I6">
         <v>11.14</v>
       </c>
+      <c r="M6">
+        <v>3514</v>
+      </c>
       <c r="N6" t="s">
         <v>16</v>
       </c>
@@ -1422,9 +1421,305 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="10:10">
-      <c r="J38" t="s">
-        <v>17</v>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B29">
+        <v>72.5</v>
+      </c>
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>55.49</v>
+      </c>
+      <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="H29">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I29">
+        <v>35.89</v>
+      </c>
+      <c r="M29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B30">
+        <v>39.82</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>22.82</v>
+      </c>
+      <c r="H30">
+        <v>7.24</v>
+      </c>
+      <c r="I30">
+        <v>15.2</v>
+      </c>
+      <c r="K30">
+        <v>0.38</v>
+      </c>
+      <c r="M30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B31">
+        <v>30.87</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>13.87</v>
+      </c>
+      <c r="I31">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="J31">
+        <v>0.95</v>
+      </c>
+      <c r="K31">
+        <v>3.04</v>
+      </c>
+      <c r="M31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B32">
+        <v>57.35</v>
+      </c>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>40.35</v>
+      </c>
+      <c r="H32">
+        <v>2.72</v>
+      </c>
+      <c r="I32">
+        <v>36.49</v>
+      </c>
+      <c r="J32">
+        <v>0.95</v>
+      </c>
+      <c r="K32">
+        <v>0.19</v>
+      </c>
+      <c r="M32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B33">
+        <v>59.27</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>42.27</v>
+      </c>
+      <c r="H33">
+        <v>9.56</v>
+      </c>
+      <c r="I33">
+        <v>32.71</v>
+      </c>
+      <c r="M33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B34">
+        <v>29.39</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>12.39</v>
+      </c>
+      <c r="H34">
+        <v>0.8</v>
+      </c>
+      <c r="I34">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="J34">
+        <v>0.19</v>
+      </c>
+      <c r="K34">
+        <v>1.52</v>
+      </c>
+      <c r="M34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B35">
+        <v>47.94</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>30.64</v>
+      </c>
+      <c r="F35">
+        <v>0.3</v>
+      </c>
+      <c r="H35">
+        <v>4.8</v>
+      </c>
+      <c r="I35">
+        <v>17.29</v>
+      </c>
+      <c r="J35">
+        <v>3.8</v>
+      </c>
+      <c r="K35">
+        <v>4.75</v>
+      </c>
+      <c r="M35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B36">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>22.09</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>15.39</v>
+      </c>
+      <c r="J36">
+        <v>3.42</v>
+      </c>
+      <c r="K36">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M36">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B37">
+        <v>43.26</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>26.26</v>
+      </c>
+      <c r="H37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I37">
+        <v>21.47</v>
+      </c>
+      <c r="J37">
+        <v>0.19</v>
+      </c>
+      <c r="M37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B38">
+        <v>37.49</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>20.49</v>
+      </c>
+      <c r="H38">
+        <v>3.2</v>
+      </c>
+      <c r="I38">
+        <v>17.29</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="N38">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B39">
+        <v>53.89</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>36.89</v>
+      </c>
+      <c r="H39">
+        <v>4.8</v>
+      </c>
+      <c r="I39">
+        <v>31.52</v>
+      </c>
+      <c r="J39">
+        <v>0.19</v>
+      </c>
+      <c r="K39">
+        <v>0.38</v>
+      </c>
+      <c r="M39">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/other/phone.xlsx
+++ b/other/phone.xlsx
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1719,6 +1719,58 @@
         <v>0.38</v>
       </c>
       <c r="M39">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B40">
+        <v>51.73</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="H40">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I40">
+        <v>18.98</v>
+      </c>
+      <c r="J40">
+        <v>7.89</v>
+      </c>
+      <c r="K40">
+        <v>6.65</v>
+      </c>
+      <c r="M40">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B41">
+        <v>53.32</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>36.32</v>
+      </c>
+      <c r="H41">
+        <v>3.6</v>
+      </c>
+      <c r="I41">
+        <v>32.72</v>
+      </c>
+      <c r="M41">
         <v>71</v>
       </c>
     </row>
